--- a/Documentos/RFC/SHC-RFC-2.xlsx
+++ b/Documentos/RFC/SHC-RFC-2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>2 (EDISON PALMONIO AYALA)</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -191,6 +194,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +627,14 @@
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/RFC/SHC-RFC-2.xlsx
+++ b/Documentos/RFC/SHC-RFC-2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -42,15 +42,9 @@
     <t>Prioridad</t>
   </si>
   <si>
-    <t>Solicitante</t>
-  </si>
-  <si>
     <t>Encargado</t>
   </si>
   <si>
-    <t>Recepcionista</t>
-  </si>
-  <si>
     <t>Respuesta</t>
   </si>
   <si>
@@ -103,6 +97,15 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Autores</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -192,11 +195,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C80"/>
+  <dimension ref="B2:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,17 +515,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -530,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -546,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -554,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -562,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -570,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -578,63 +581,68 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/RFC/SHC-RFC-2.xlsx
+++ b/Documentos/RFC/SHC-RFC-2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Respuesta</t>
   </si>
   <si>
-    <t>Solicitud de Cambio (RFC)</t>
-  </si>
-  <si>
     <t>SHC</t>
   </si>
   <si>
@@ -96,16 +93,13 @@
     <t>2 (EDISON PALMONIO AYALA)</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Fuente</t>
   </si>
   <si>
     <t>Autores</t>
   </si>
   <si>
-    <t>,</t>
+    <t xml:space="preserve">Solicitud de Cambio (RFC) </t>
   </si>
 </sst>
 </file>
@@ -502,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C81"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +510,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6"/>
     </row>
@@ -525,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -533,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -549,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -557,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -565,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -573,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -581,23 +575,23 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -605,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -613,37 +607,27 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
